--- a/teaching/traditional_assets/database/data/australia/australia_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09960000000000001</v>
+        <v>0.044205</v>
       </c>
       <c r="E2">
-        <v>0.2245</v>
+        <v>0.0276</v>
       </c>
       <c r="F2">
-        <v>0.118</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.09582829041104286</v>
+        <v>0.06604584303370259</v>
       </c>
       <c r="H2">
-        <v>0.09582829041104286</v>
+        <v>0.06604584303370259</v>
       </c>
       <c r="I2">
-        <v>0.09227164912947831</v>
+        <v>0.0622646521148107</v>
       </c>
       <c r="J2">
-        <v>0.05877258283826918</v>
+        <v>0.0501616324017932</v>
       </c>
       <c r="K2">
-        <v>430.01</v>
+        <v>278.57</v>
       </c>
       <c r="L2">
-        <v>0.06587869410016395</v>
+        <v>0.04352588240808737</v>
       </c>
       <c r="M2">
-        <v>324.51</v>
+        <v>377.6</v>
       </c>
       <c r="N2">
-        <v>0.03965466676442554</v>
+        <v>0.04397037589081932</v>
       </c>
       <c r="O2">
-        <v>0.7546568684449197</v>
+        <v>1.355494130739132</v>
       </c>
       <c r="P2">
-        <v>317.85</v>
+        <v>370.63</v>
       </c>
       <c r="Q2">
-        <v>0.03884082410733925</v>
+        <v>0.04315874050957194</v>
       </c>
       <c r="R2">
-        <v>0.7391688565382201</v>
+        <v>1.330473489607639</v>
       </c>
       <c r="S2">
-        <v>6.659999999999982</v>
+        <v>6.969999999999999</v>
       </c>
       <c r="T2">
-        <v>0.02052325043912355</v>
+        <v>0.01845868644067796</v>
       </c>
       <c r="U2">
-        <v>592.6</v>
+        <v>781.2</v>
       </c>
       <c r="V2">
-        <v>0.07241488867707799</v>
+        <v>0.09096837300293446</v>
       </c>
       <c r="W2">
-        <v>0.2537566650508967</v>
+        <v>0.1403113016016242</v>
       </c>
       <c r="X2">
-        <v>0.07058475866588022</v>
+        <v>0.05520911817519505</v>
       </c>
       <c r="Y2">
-        <v>0.1831719063850165</v>
+        <v>0.08510218342642914</v>
       </c>
       <c r="Z2">
-        <v>4.886155916315499</v>
+        <v>5.79605801763423</v>
       </c>
       <c r="AA2">
-        <v>0.3202191311779333</v>
+        <v>0.2835153330957075</v>
       </c>
       <c r="AB2">
-        <v>0.06982954323535004</v>
+        <v>0.05472240243958535</v>
       </c>
       <c r="AC2">
-        <v>0.2512070767752497</v>
+        <v>0.2287929306561221</v>
       </c>
       <c r="AD2">
-        <v>164</v>
+        <v>293.537</v>
       </c>
       <c r="AE2">
-        <v>147.781323185781</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>311.781323185781</v>
+        <v>293.537</v>
       </c>
       <c r="AG2">
-        <v>-280.818676814219</v>
+        <v>-487.663</v>
       </c>
       <c r="AH2">
-        <v>0.03670096155980103</v>
+        <v>0.03305173650626041</v>
       </c>
       <c r="AI2">
-        <v>0.1466115214059666</v>
+        <v>0.1485107539094892</v>
       </c>
       <c r="AJ2">
-        <v>-0.03553505687949215</v>
+        <v>-0.06020577690912905</v>
       </c>
       <c r="AK2">
-        <v>-0.1830652515579611</v>
+        <v>-0.4079711411928185</v>
       </c>
       <c r="AL2">
-        <v>5.418</v>
+        <v>9.122</v>
       </c>
       <c r="AM2">
-        <v>5.418</v>
+        <v>9.122</v>
       </c>
       <c r="AN2">
-        <v>0.2502513958381972</v>
+        <v>0.6944334043056543</v>
       </c>
       <c r="AO2">
-        <v>111.1111111111111</v>
+        <v>43.68559526419645</v>
       </c>
       <c r="AP2">
-        <v>-0.4285077185987433</v>
+        <v>-1.153685829193281</v>
       </c>
       <c r="AQ2">
-        <v>111.1111111111111</v>
+        <v>43.68559526419645</v>
       </c>
     </row>
     <row r="3">
@@ -727,47 +727,44 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.726</v>
-      </c>
       <c r="F3">
-        <v>0.118</v>
+        <v>0.139</v>
       </c>
       <c r="G3">
-        <v>0.1767515923566879</v>
+        <v>0.5989583333333334</v>
       </c>
       <c r="H3">
-        <v>0.1767515923566879</v>
+        <v>0.5989583333333334</v>
       </c>
       <c r="I3">
-        <v>0.177597401957783</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="J3">
-        <v>0.0887987009788915</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="K3">
-        <v>3.71</v>
+        <v>-1.13</v>
       </c>
       <c r="L3">
-        <v>0.05907643312101911</v>
+        <v>0.05885416666666667</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N3">
-        <v>0.02717391304347826</v>
+        <v>0.01888646288209607</v>
       </c>
       <c r="O3">
-        <v>0.4716981132075472</v>
+        <v>-1.530973451327434</v>
       </c>
       <c r="P3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q3">
-        <v>0.02717391304347826</v>
+        <v>0.01888646288209607</v>
       </c>
       <c r="R3">
-        <v>0.4716981132075472</v>
+        <v>-1.530973451327434</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>16.8</v>
+        <v>42.9</v>
       </c>
       <c r="V3">
-        <v>0.2608695652173913</v>
+        <v>0.4683406113537118</v>
       </c>
       <c r="W3">
-        <v>0.2968</v>
+        <v>-0.07793103448275861</v>
       </c>
       <c r="X3">
-        <v>0.07029096562952904</v>
+        <v>0.05495059774014913</v>
       </c>
       <c r="Y3">
-        <v>0.226509034370471</v>
+        <v>-0.1328816322229077</v>
       </c>
       <c r="Z3">
-        <v>47.06179340343002</v>
+        <v>7.153502235469447</v>
       </c>
       <c r="AA3">
-        <v>4.179026119961551</v>
+        <v>4.321907600596124</v>
       </c>
       <c r="AB3">
-        <v>0.06997684580422192</v>
+        <v>0.05481537327732752</v>
       </c>
       <c r="AC3">
-        <v>4.109049274157329</v>
+        <v>4.267092227318797</v>
       </c>
       <c r="AD3">
+        <v>0.337</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AE3">
-        <v>0.439415785256133</v>
-      </c>
       <c r="AF3">
-        <v>0.439415785256133</v>
+        <v>0.337</v>
       </c>
       <c r="AG3">
-        <v>-16.36058421474387</v>
+        <v>-42.563</v>
       </c>
       <c r="AH3">
-        <v>0.006776985571730767</v>
+        <v>0.003665553585607536</v>
       </c>
       <c r="AI3">
-        <v>0.02941318399410217</v>
+        <v>0.02731620329091352</v>
       </c>
       <c r="AJ3">
-        <v>-0.3405658446780097</v>
+        <v>-0.8679772416746537</v>
       </c>
       <c r="AK3">
-        <v>8.79325111171929</v>
+        <v>1.392631613388738</v>
       </c>
       <c r="AL3">
-        <v>0.018</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.018</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-0.02930434782608696</v>
       </c>
       <c r="AO3">
-        <v>611.1111111111112</v>
+        <v>-161.1111111111111</v>
       </c>
       <c r="AP3">
-        <v>-1.442605080217253</v>
+        <v>3.701130434782608</v>
       </c>
       <c r="AQ3">
-        <v>611.1111111111112</v>
+        <v>-161.1111111111111</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nib holdings limited (ASX:NHF)</t>
+          <t>Medibank Private Limited (ASX:MPL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,124 +859,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.09960000000000001</v>
+        <v>0.00291</v>
       </c>
       <c r="E4">
-        <v>0.164</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
-        <v>0.135</v>
+        <v>0.0337</v>
       </c>
       <c r="G4">
-        <v>0.09697286619022719</v>
+        <v>0.0701833098320728</v>
       </c>
       <c r="H4">
-        <v>0.09697286619022719</v>
+        <v>0.0701833098320728</v>
       </c>
       <c r="I4">
-        <v>0.09067930379166297</v>
+        <v>0.06691449814126393</v>
       </c>
       <c r="J4">
-        <v>0.06353017532892127</v>
+        <v>0.04691334988732758</v>
       </c>
       <c r="K4">
-        <v>104.7</v>
+        <v>217.5</v>
       </c>
       <c r="L4">
-        <v>0.06083318807739237</v>
+        <v>0.04646840148698884</v>
       </c>
       <c r="M4">
-        <v>71.20999999999999</v>
+        <v>299.22</v>
       </c>
       <c r="N4">
-        <v>0.03551620947630922</v>
+        <v>0.046787484558973</v>
       </c>
       <c r="O4">
-        <v>0.6801337153772683</v>
+        <v>1.375724137931035</v>
       </c>
       <c r="P4">
-        <v>67</v>
+        <v>296.6</v>
       </c>
       <c r="Q4">
-        <v>0.03341645885286783</v>
+        <v>0.04637780870326647</v>
       </c>
       <c r="R4">
-        <v>0.6399235912129895</v>
+        <v>1.36367816091954</v>
       </c>
       <c r="S4">
-        <v>4.209999999999994</v>
+        <v>2.620000000000005</v>
       </c>
       <c r="T4">
-        <v>0.05912090998455265</v>
+        <v>0.008756099191230547</v>
       </c>
       <c r="U4">
-        <v>115.5</v>
+        <v>601.6</v>
       </c>
       <c r="V4">
-        <v>0.05760598503740649</v>
+        <v>0.0940690819820806</v>
       </c>
       <c r="W4">
-        <v>0.2537566650508967</v>
+        <v>0.160280029476787</v>
       </c>
       <c r="X4">
-        <v>0.07393871659414351</v>
+        <v>0.05520911817519505</v>
       </c>
       <c r="Y4">
-        <v>0.1798179484567532</v>
+        <v>0.105070911301592</v>
       </c>
       <c r="Z4">
-        <v>5.040425742885644</v>
+        <v>6.043382827630729</v>
       </c>
       <c r="AA4">
-        <v>0.3202191311779333</v>
+        <v>0.2835153330957075</v>
       </c>
       <c r="AB4">
-        <v>0.06901205440268353</v>
+        <v>0.05472240243958535</v>
       </c>
       <c r="AC4">
-        <v>0.2512070767752497</v>
+        <v>0.2287929306561221</v>
       </c>
       <c r="AD4">
-        <v>164</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AE4">
-        <v>55.1592512208442</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>219.1592512208442</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AG4">
-        <v>103.6592512208442</v>
+        <v>-526.2</v>
       </c>
       <c r="AH4">
-        <v>0.09853577305696407</v>
+        <v>0.01165252600182361</v>
       </c>
       <c r="AI4">
-        <v>0.330826765294554</v>
+        <v>0.05678993748587784</v>
       </c>
       <c r="AJ4">
-        <v>0.04915884401940661</v>
+        <v>-0.0896559949566373</v>
       </c>
       <c r="AK4">
-        <v>0.1895191478880206</v>
+        <v>-0.7246935683790113</v>
       </c>
       <c r="AL4">
-        <v>5.4</v>
+        <v>2.35</v>
       </c>
       <c r="AM4">
-        <v>5.4</v>
+        <v>2.35</v>
       </c>
       <c r="AN4">
-        <v>0.9366076527698458</v>
+        <v>0.2295281582952816</v>
       </c>
       <c r="AO4">
-        <v>29.42592592592592</v>
+        <v>133.2765957446808</v>
       </c>
       <c r="AP4">
-        <v>0.592000292523382</v>
+        <v>-1.601826484018265</v>
       </c>
       <c r="AQ4">
-        <v>29.42592592592592</v>
+        <v>133.2765957446808</v>
       </c>
     </row>
     <row r="5">
@@ -990,7 +987,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Medibank Private Limited (ASX:MPL)</t>
+          <t>nib holdings limited (ASX:NHF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -999,118 +996,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.00847</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="E5">
-        <v>0.285</v>
+        <v>0.0352</v>
       </c>
       <c r="F5">
-        <v>0.0237</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.09434161150229793</v>
+        <v>0.0607925461551734</v>
       </c>
       <c r="H5">
-        <v>0.09434161150229793</v>
+        <v>0.0607925461551734</v>
       </c>
       <c r="I5">
-        <v>0.09171975139437195</v>
+        <v>0.05573129349514005</v>
       </c>
       <c r="J5">
-        <v>0.06514416038632899</v>
+        <v>0.03989052307707378</v>
       </c>
       <c r="K5">
-        <v>321.6</v>
+        <v>62.2</v>
       </c>
       <c r="L5">
-        <v>0.06779946873550619</v>
+        <v>0.03577385402887215</v>
       </c>
       <c r="M5">
-        <v>251.55</v>
+        <v>76.64999999999999</v>
       </c>
       <c r="N5">
-        <v>0.04114327772325809</v>
+        <v>0.03648783738753748</v>
       </c>
       <c r="O5">
-        <v>0.7821828358208954</v>
+        <v>1.232315112540193</v>
       </c>
       <c r="P5">
-        <v>249.1</v>
+        <v>72.3</v>
       </c>
       <c r="Q5">
-        <v>0.04074255806346091</v>
+        <v>0.03441709906221736</v>
       </c>
       <c r="R5">
-        <v>0.7745646766169153</v>
+        <v>1.162379421221865</v>
       </c>
       <c r="S5">
-        <v>2.449999999999989</v>
+        <v>4.349999999999994</v>
       </c>
       <c r="T5">
-        <v>0.009739614390777137</v>
+        <v>0.05675146771037175</v>
       </c>
       <c r="U5">
-        <v>460.3</v>
+        <v>136.7</v>
       </c>
       <c r="V5">
-        <v>0.07528622832842656</v>
+        <v>0.06507354691293378</v>
       </c>
       <c r="W5">
-        <v>0.2376940133037694</v>
+        <v>0.1403113016016242</v>
       </c>
       <c r="X5">
-        <v>0.07058475866588022</v>
+        <v>0.05813795303571433</v>
       </c>
       <c r="Y5">
-        <v>0.1671092546378892</v>
+        <v>0.08217334856590987</v>
       </c>
       <c r="Z5">
-        <v>4.776440279651572</v>
+        <v>5.230746089049338</v>
       </c>
       <c r="AA5">
-        <v>0.311157191653344</v>
+        <v>0.2086571975755361</v>
       </c>
       <c r="AB5">
-        <v>0.06982954323535004</v>
+        <v>0.0539390252068687</v>
       </c>
       <c r="AC5">
-        <v>0.241327648417994</v>
+        <v>0.1547181723686674</v>
       </c>
       <c r="AD5">
+        <v>217.8</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AE5">
-        <v>92.18265617968065</v>
-      </c>
       <c r="AF5">
-        <v>92.18265617968065</v>
+        <v>217.8</v>
       </c>
       <c r="AG5">
-        <v>-368.1173438203194</v>
+        <v>81.10000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.01485335854365995</v>
+        <v>0.09394004744446841</v>
       </c>
       <c r="AI5">
-        <v>0.06361010172637006</v>
+        <v>0.3421838177533386</v>
       </c>
       <c r="AJ5">
-        <v>-0.06406628291032192</v>
+        <v>0.03717114309285912</v>
       </c>
       <c r="AK5">
-        <v>-0.3722558399825269</v>
+        <v>0.162264905962385</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.060548722800378</v>
+      </c>
+      <c r="AO5">
+        <v>14.46268656716418</v>
       </c>
       <c r="AP5">
-        <v>-0.7850657791007025</v>
+        <v>0.7672658467360456</v>
+      </c>
+      <c r="AQ5">
+        <v>14.46268656716418</v>
       </c>
     </row>
   </sheetData>
